--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1833705.898465572</v>
+        <v>-1836274.321904519</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15063351.73938108</v>
+        <v>15063351.73938107</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>120.500093579307</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
         <v>327.7618252962026</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0091537477814</v>
+        <v>113.6197243947954</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0005093289731</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65571344844554</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369542</v>
+        <v>82.26654546369549</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
         <v>224.0739556344216</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456545</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
         <v>322.3197523929326</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3167223315731</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>152.9107638574569</v>
       </c>
       <c r="C13" t="n">
-        <v>16.73534786085455</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6942566937319</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984508</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1045919345478</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>20.04389059233861</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535768</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556692</v>
+        <v>62.01093634556699</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T13" t="n">
         <v>192.6277329516888</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2906218811324</v>
+        <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
         <v>225.2164269993476</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121106</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645567</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>317.2509204538374</v>
       </c>
       <c r="D14" t="n">
         <v>327.7618252962026</v>
@@ -1616,16 +1616,16 @@
         <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G14" t="n">
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65571344844565</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369552</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344217</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3197523929327</v>
@@ -1673,7 +1673,7 @@
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.27845909614075</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.910763857457</v>
+        <v>152.9107638574569</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3256047741475</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>90.14112778630681</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898404</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535779</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556702</v>
+        <v>62.01093634556699</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069616</v>
+        <v>162.8478090069615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6277329516888</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993477</v>
+        <v>225.2164269993476</v>
       </c>
       <c r="W16" t="n">
         <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>171.4740724323623</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276145</v>
+        <v>191.6634370276144</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8374887204076</v>
+        <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
         <v>291.3765388279346</v>
       </c>
       <c r="D17" t="n">
-        <v>280.78668867761</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>228.8527806658025</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9796927986385</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103805</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510291</v>
+        <v>35.29140884510294</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965472</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
-        <v>177.098819015829</v>
+        <v>177.0988190158291</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
         <v>275.3446157743401</v>
@@ -1910,7 +1910,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129806</v>
+        <v>287.3384608517205</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555489</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513941</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349623</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F19" t="n">
-        <v>71.5246950798583</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595528</v>
+        <v>92.12945531595531</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124784</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676517</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0694063257215</v>
+        <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
         <v>212.3154852625399</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2412903807551</v>
+        <v>240.6581003733802</v>
       </c>
       <c r="W19" t="n">
         <v>212.6266453935181</v>
@@ -2068,7 +2068,7 @@
         <v>151.8133024459642</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6883004090218</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
         <v>308.0340171291889</v>
       </c>
       <c r="F20" t="n">
-        <v>280.7292394857989</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
         <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>196.1633793109535</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3446157743401</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9544196961213</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595533</v>
+        <v>92.12945531595531</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676521</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2293,7 +2293,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2302,7 +2302,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385894</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6883004090219</v>
@@ -2318,7 +2318,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279347</v>
+        <v>291.3765388279346</v>
       </c>
       <c r="D23" t="n">
         <v>280.7866886776101</v>
@@ -2333,7 +2333,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7114114442476</v>
+        <v>220.7114114442475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129807</v>
+        <v>312.3415857129806</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555494</v>
+        <v>93.35046815555492</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513946</v>
+        <v>74.71912007513944</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349627</v>
+        <v>72.53760970349626</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985835</v>
+        <v>71.52469507985833</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595533</v>
+        <v>92.12945531595531</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124788</v>
+        <v>70.85866197124787</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676521</v>
+        <v>22.4560674667652</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697443</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2894823809939</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.31548526254</v>
+        <v>212.3154852625399</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6266453935181</v>
+        <v>275.0434553861431</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>151.8133024459642</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6883004090219</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124451</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348622</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1664.372848571518</v>
+        <v>1139.315638299669</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.655582329793</v>
+        <v>797.5462691617631</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.583031525548</v>
+        <v>466.473718357518</v>
       </c>
       <c r="E11" t="n">
-        <v>852.987926729809</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="F11" t="n">
-        <v>469.1951697427069</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31586739020923</v>
+        <v>351.7063199789367</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020923</v>
+        <v>81.31586739020932</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938773</v>
+        <v>3242.508300938771</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508300938773</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U11" t="n">
-        <v>3016.170972015114</v>
+        <v>2837.38637220184</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.301232474049</v>
+        <v>2533.516632660775</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.725725006441</v>
+        <v>2207.941125193166</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.725725006441</v>
+        <v>1861.668514734592</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.779540833135</v>
+        <v>1498.722330561285</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>776.4230024775088</v>
+        <v>418.3308347658144</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5186106988679</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5951190890376</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8751733091499</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="F13" t="n">
-        <v>396.178373613745</v>
+        <v>156.8909999450079</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6686847909694</v>
+        <v>156.8909999450079</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6446458113326</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.2867530403546</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504665</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601983</v>
+        <v>712.1377427601981</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.510581378378</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.873271938411</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.873271938411</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.299804310442</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.390085238591</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.89874483521</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.674722600755</v>
+        <v>967.1819862300853</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8783195052431</v>
+        <v>766.3855831345734</v>
       </c>
       <c r="Y13" t="n">
-        <v>930.8783195052431</v>
+        <v>572.7861517935487</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1429.253277931419</v>
+        <v>1848.307306577664</v>
       </c>
       <c r="C14" t="n">
-        <v>1429.253277931419</v>
+        <v>1527.851831371768</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.180727127174</v>
+        <v>1196.779280567523</v>
       </c>
       <c r="E14" t="n">
-        <v>739.585622331435</v>
+        <v>838.1841757717837</v>
       </c>
       <c r="F14" t="n">
-        <v>739.585622331435</v>
+        <v>454.3914187846815</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789369</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020949</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218357</v>
@@ -5288,16 +5288,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
@@ -5306,22 +5306,22 @@
         <v>3242.50830093877</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125497</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.38637220184</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516632660775</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.941125193166</v>
+        <v>2916.932793471161</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.668514734592</v>
+        <v>2570.660183012587</v>
       </c>
       <c r="Y14" t="n">
-        <v>1788.659970193035</v>
+        <v>2207.713998839281</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.4945717192313</v>
+        <v>418.3308347658146</v>
       </c>
       <c r="C16" t="n">
-        <v>640.4945717192313</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="D16" t="n">
-        <v>517.571080109401</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="E16" t="n">
-        <v>396.8511343295133</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="F16" t="n">
-        <v>277.1543346341083</v>
+        <v>276.5877996404129</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6446458113327</v>
+        <v>185.5361554118202</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403544</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
         <v>368.9259401504663</v>
@@ -5443,16 +5443,16 @@
         <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.510581378377</v>
@@ -5461,25 +5461,25 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567741</v>
+        <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.380535567741</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.47081649589</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.979476092509</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.755453858053</v>
+        <v>967.1819862300855</v>
       </c>
       <c r="X16" t="n">
-        <v>988.5493200879904</v>
+        <v>766.3855831345736</v>
       </c>
       <c r="Y16" t="n">
-        <v>794.9498887469657</v>
+        <v>572.7861517935489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1775.332808477248</v>
+        <v>1544.168383562296</v>
       </c>
       <c r="C17" t="n">
-        <v>1481.013072287416</v>
+        <v>1249.848647372463</v>
       </c>
       <c r="D17" t="n">
-        <v>1197.390154431243</v>
+        <v>966.2257295162915</v>
       </c>
       <c r="E17" t="n">
-        <v>966.225729516291</v>
+        <v>966.2257295162915</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772622</v>
+        <v>629.8826054772626</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728375</v>
+        <v>289.4529360728377</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5522,7 +5522,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5549,16 +5549,16 @@
         <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.73527104606</v>
+        <v>2723.315164453068</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.609396526525</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.786419016024</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2087.289867790792</v>
+        <v>1856.125442875839</v>
       </c>
     </row>
     <row r="18">
@@ -5592,7 +5592,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877564</v>
+        <v>569.1142151877565</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104281</v>
+        <v>474.8208130104283</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486711</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168567</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695251</v>
+        <v>253.8294747695252</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948228</v>
+        <v>160.7694188948229</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325935</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,22 +5701,22 @@
         <v>1795.063768174004</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370331</v>
       </c>
       <c r="V19" t="n">
         <v>1190.390857094189</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078075</v>
+        <v>975.6164678078076</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603688</v>
+        <v>822.2696976603689</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674174</v>
+        <v>676.1198992674175</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.912701884256</v>
+        <v>1855.313855409962</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592965694423</v>
+        <v>1560.994119220129</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.592965694423</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>913.4474938467572</v>
+        <v>966.2257295162913</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8826054772624</v>
+        <v>629.8826054772626</v>
       </c>
       <c r="G20" t="n">
         <v>289.4529360728375</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5777,7 +5777,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886845</v>
+        <v>3289.957933886844</v>
       </c>
       <c r="T20" t="n">
         <v>3158.622967021645</v>
@@ -5786,16 +5786,16 @@
         <v>2979.73527104606</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.315164453069</v>
+        <v>2781.590443459238</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.189289933533</v>
+        <v>2781.590443459238</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.366312423032</v>
+        <v>2482.767465948737</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869761197799</v>
+        <v>2167.270914723505</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.16149800859</v>
+        <v>569.1142151877565</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8680958312618</v>
+        <v>474.8208130104283</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3942371695048</v>
+        <v>399.3469543486713</v>
       </c>
       <c r="E22" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168569</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695252</v>
       </c>
       <c r="G22" t="n">
         <v>160.7694188948229</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325939</v>
+        <v>89.19501286325938</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5950,10 +5950,10 @@
         <v>1038.663750628641</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3169804812024</v>
+        <v>822.2696976603689</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.167182088251</v>
+        <v>676.1198992674175</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073752</v>
+        <v>1862.179185073751</v>
       </c>
       <c r="C23" t="n">
         <v>1567.859448883919</v>
@@ -5972,13 +5972,13 @@
         <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800819</v>
+        <v>973.0910591800816</v>
       </c>
       <c r="F23" t="n">
         <v>636.7479351410529</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3182657366275</v>
+        <v>296.3182657366274</v>
       </c>
       <c r="H23" t="n">
         <v>73.37744609597335</v>
@@ -5996,25 +5996,25 @@
         <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.043222190886</v>
+        <v>1580.642068665178</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.822039249668</v>
+        <v>2127.42088572396</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.794510129005</v>
+        <v>2630.393356603297</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.568876486182</v>
+        <v>3296.50962081193</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.855238241865</v>
+        <v>3544.795982567612</v>
       </c>
       <c r="R23" t="n">
         <v>3668.872304798667</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.224417076341</v>
+        <v>3633.224417076342</v>
       </c>
       <c r="T23" t="n">
         <v>3501.889450211142</v>
@@ -6023,16 +6023,16 @@
         <v>3323.001754235557</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642564</v>
+        <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
         <v>2788.455773123029</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612528</v>
+        <v>2489.632795612527</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387295</v>
+        <v>2174.136244387294</v>
       </c>
     </row>
     <row r="24">
@@ -6081,7 +6081,7 @@
         <v>1692.816443656373</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.777723074428</v>
+        <v>2103.777723074429</v>
       </c>
       <c r="P24" t="n">
         <v>2414.277314550532</v>
@@ -6139,7 +6139,7 @@
         <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704933</v>
+        <v>96.06034252704931</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597335</v>
@@ -6172,16 +6172,16 @@
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.881815016961</v>
+        <v>1801.929097837794</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.757980337065</v>
+        <v>1654.805263157899</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.297894213288</v>
+        <v>1440.345177034121</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.25618675798</v>
+        <v>1260.303469578813</v>
       </c>
       <c r="W25" t="n">
         <v>982.4817974715976</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
@@ -6218,58 +6218,58 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3182.560655874485</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3577.335022231663</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
@@ -6388,46 +6388,46 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498218</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
         <v>924.7493799910139</v>
@@ -6470,43 +6470,43 @@
         <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899655</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257031</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913832</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415461</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643384</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302695</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
         <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
         <v>2189.856749167329</v>
@@ -6646,7 +6646,7 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6655,16 +6655,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.303399835341</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398486</v>
@@ -6941,13 +6941,13 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2548.674958929621</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
         <v>3355.268050164795</v>
@@ -6962,7 +6962,7 @@
         <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
         <v>3835.976694641921</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7026,13 +7026,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
@@ -7099,19 +7099,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776559</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2735.569460712893</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3238.54193159223</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
         <v>779.7865456803195</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7360,22 +7360,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7418,10 +7418,10 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058813</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285459</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O41" t="n">
         <v>3355.268050164796</v>
@@ -7494,7 +7494,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7570,7 +7570,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7637,52 +7637,52 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911347</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N44" t="n">
-        <v>2533.71485819569</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O44" t="n">
-        <v>3036.687329075027</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P44" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7801,13 +7801,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982168</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764231</v>
+        <v>212.1614152764228</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188439</v>
+        <v>225.9304893188435</v>
       </c>
       <c r="M5" t="n">
-        <v>219.401870760398</v>
+        <v>219.4018707603977</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030235</v>
+        <v>218.2916099030231</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661486</v>
+        <v>219.5965380661482</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111177</v>
+        <v>222.2700605111175</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357293</v>
+        <v>123.6869003357292</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344806</v>
+        <v>132.4563458344805</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915378</v>
+        <v>131.3134574915376</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437698</v>
+        <v>133.6842191437696</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511132</v>
+        <v>122.6682558511129</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891797</v>
+        <v>134.6617264891794</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357708</v>
+        <v>127.6062572357706</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369105</v>
+        <v>135.7248343369104</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970309</v>
+        <v>130.7280129970307</v>
       </c>
       <c r="M7" t="n">
-        <v>134.543165321606</v>
+        <v>134.5431653216059</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145261</v>
+        <v>123.407134714526</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663801</v>
+        <v>134.50473456638</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299171</v>
+        <v>134.346553129917</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>339.7991449754622</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0827251024797</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>21.74982042514841</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>174.4519134245563</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>400.2032972882116</v>
       </c>
       <c r="N29" t="n">
-        <v>400.2032972882122</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>343.5485285966315</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>274.8351763665441</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10589,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>306.6874953089257</v>
+        <v>287.0017854473912</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>19.40311602546649</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>52.18875040233615</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>287.0017854473926</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>274.8351763665441</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>402.5500016878939</v>
       </c>
       <c r="N44" t="n">
-        <v>78.40458911672852</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2404088827751</v>
+        <v>15.24040888277509</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8515818672201</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.389429352986</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>123.5902569132929</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.78990799750181</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>21.10075499268983</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.6557134484455</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0739556344216</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.0382632354325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.96346414824106</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516889</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.31436663219451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>79.18123646338638</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.855905527062</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.00312486126012</v>
       </c>
     </row>
     <row r="18">
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>52.25045331283962</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.69252621610849</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.058708676282549e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26323,7 +26323,7 @@
         <v>127669.8307942468</v>
       </c>
       <c r="F2" t="n">
-        <v>127669.8307942469</v>
+        <v>127669.8307942468</v>
       </c>
       <c r="G2" t="n">
         <v>139043.1023383226</v>
@@ -26341,13 +26341,13 @@
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945433</v>
+        <v>14118.19859945478</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072205</v>
+        <v>16714.64353072163</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>22820.44161905854</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728112</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26418,46 +26418,46 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200267</v>
+        <v>426739.1543200266</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210913</v>
+        <v>37585.46710210907</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210905</v>
+        <v>37585.46710210906</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521042</v>
+        <v>74613.2268652104</v>
       </c>
       <c r="H4" t="n">
         <v>74613.22686521037</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913915</v>
+        <v>85473.00365913917</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646589</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="K4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646601</v>
-      </c>
-      <c r="L4" t="n">
-        <v>80755.36360646597</v>
       </c>
       <c r="M4" t="n">
         <v>80755.36360646598</v>
       </c>
       <c r="N4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="O4" t="n">
+        <v>80755.36360646599</v>
+      </c>
+      <c r="P4" t="n">
         <v>80755.36360646601</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646601</v>
-      </c>
-      <c r="P4" t="n">
-        <v>80755.36360646598</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112993</v>
+        <v>33965.59259112995</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657605</v>
+        <v>76569.58029657602</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657602</v>
@@ -26485,7 +26485,7 @@
         <v>80518.7330569645</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.73305696448</v>
+        <v>80518.7330569645</v>
       </c>
       <c r="I5" t="n">
         <v>85736.38360144483</v>
@@ -26494,7 +26494,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321152.7501671941</v>
+        <v>-321157.1637450623</v>
       </c>
       <c r="C6" t="n">
-        <v>-331448.7179972805</v>
+        <v>-331453.1191717511</v>
       </c>
       <c r="D6" t="n">
-        <v>-329325.3777881899</v>
+        <v>-329329.763349049</v>
       </c>
       <c r="E6" t="n">
-        <v>-1103654.058076359</v>
+        <v>-1103882.807775387</v>
       </c>
       <c r="F6" t="n">
-        <v>13514.783395562</v>
+        <v>13286.03369653311</v>
       </c>
       <c r="G6" t="n">
-        <v>-53668.96687872645</v>
+        <v>-53735.24126998249</v>
       </c>
       <c r="H6" t="n">
-        <v>-16088.8575838523</v>
+        <v>-16155.13197510835</v>
       </c>
       <c r="I6" t="n">
-        <v>-50347.51915339299</v>
+        <v>-50347.51915339303</v>
       </c>
       <c r="J6" t="n">
-        <v>-51861.43828230332</v>
+        <v>-51861.43828230342</v>
       </c>
       <c r="K6" t="n">
-        <v>-26450.99555502244</v>
+        <v>-26450.9955550224</v>
       </c>
       <c r="L6" t="n">
-        <v>-64031.10484989655</v>
+        <v>-64031.10484989651</v>
       </c>
       <c r="M6" t="n">
         <v>-233639.5638470953</v>
       </c>
       <c r="N6" t="n">
-        <v>-26450.99555502235</v>
+        <v>-26450.99555502238</v>
       </c>
       <c r="O6" t="n">
-        <v>-26450.99555502238</v>
+        <v>-26450.99555502237</v>
       </c>
       <c r="P6" t="n">
-        <v>-26450.99555502237</v>
+        <v>-26450.99555502241</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.50424729953896</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022924</v>
@@ -26814,10 +26814,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.50424729953896</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958685</v>
+        <v>19.51701341958636</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81662079737418</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.11838500894771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448036</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.8364790096108</v>
+        <v>338.8364790096107</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713488</v>
+        <v>208.0729649713487</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851899</v>
+        <v>6.659224593851733</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783858</v>
+        <v>3.259908116783648</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886688</v>
+        <v>145.9538669886686</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.5997558763428</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234548</v>
+        <v>88.24844095234545</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573495</v>
+        <v>98.08728580573489</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27792,13 +27792,13 @@
         <v>161.9785962146699</v>
       </c>
       <c r="I7" t="n">
-        <v>154.609687221244</v>
+        <v>154.6096872212439</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997587</v>
+        <v>91.38251566997582</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263528</v>
+        <v>19.02122493263518</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946407</v>
+        <v>83.820901909464</v>
       </c>
       <c r="R7" t="n">
         <v>176.0362765059643</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448041</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448035</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T19" t="n">
-        <v>11.47954295044772</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307294</v>
+        <v>11.47954295044778</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307294</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E22" t="n">
-        <v>11.47954295044784</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044775</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="S25" t="n">
-        <v>11.47954295044804</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8963529430729</v>
+        <v>11.47954295044792</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8963529430729</v>
+        <v>73.89635294307291</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859273</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30642,7 +30642,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
         <v>46.97513661859256</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995362</v>
+        <v>0.06232863235995557</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563752</v>
+        <v>0.6383231061563952</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057114</v>
+        <v>2.40292459905719</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760618</v>
+        <v>5.290064760760784</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557457</v>
+        <v>7.928435768557705</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143389</v>
+        <v>9.835925651143697</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687471</v>
+        <v>10.94436246687506</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356743</v>
+        <v>11.12145369356778</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553814</v>
+        <v>10.50167335553847</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151788</v>
+        <v>8.962935244152067</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760946</v>
+        <v>6.730791097761156</v>
       </c>
       <c r="R5" t="n">
-        <v>3.91525095248094</v>
+        <v>3.915250952481063</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902445</v>
+        <v>1.420313709902489</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556971</v>
+        <v>0.2728435881557056</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796289</v>
+        <v>0.004986290588796445</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240351</v>
+        <v>0.03334875834240456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753182</v>
+        <v>0.3220787976753283</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069595</v>
+        <v>1.148191899069631</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937343</v>
+        <v>3.150726330937442</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878379</v>
+        <v>5.385093139878546</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336343</v>
+        <v>7.240922288336569</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248468</v>
+        <v>8.449814778248733</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220115</v>
+        <v>8.673456232220385</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264751</v>
+        <v>7.934517955265</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559493</v>
+        <v>6.368150178559691</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111018</v>
+        <v>4.256939749111151</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908177</v>
+        <v>2.070548346908242</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617491</v>
+        <v>0.6194385595617684</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573194</v>
+        <v>0.1344188987573236</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368653</v>
+        <v>0.002193997259368722</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687266</v>
+        <v>0.02795847873687353</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696498</v>
+        <v>0.2485762927696576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143162</v>
+        <v>0.8407877060143425</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696897</v>
+        <v>1.976664446696959</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247568</v>
+        <v>3.24826689324767</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207414</v>
+        <v>4.156663284207544</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999047</v>
+        <v>4.382618625999184</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707071</v>
+        <v>4.278409750707205</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462693</v>
+        <v>3.951803885462817</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230488</v>
+        <v>3.381450919230594</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34114134223031</v>
+        <v>2.341141342230383</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205201</v>
+        <v>1.25711487120524</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871351</v>
+        <v>0.4872400339871504</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030013</v>
+        <v>0.1194589546030051</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102147</v>
+        <v>0.001525007931102194</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32312,10 +32312,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138795</v>
@@ -32558,10 +32558,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32801,10 +32801,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33974,10 +33974,10 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34214,10 +34214,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34448,13 +34448,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754664</v>
+        <v>72.49963293754658</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758688</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179643</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7781624920205</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471202</v>
+        <v>329.2743465471201</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695909</v>
+        <v>261.8782874695908</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3154548623741</v>
+        <v>105.315454862374</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754652</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9688758687998</v>
+        <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
         <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5545957179641</v>
+        <v>374.5545957179642</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7781624920203</v>
+        <v>371.7781624920204</v>
       </c>
       <c r="O16" t="n">
         <v>329.27434654712</v>
@@ -35890,13 +35890,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340053</v>
@@ -36206,10 +36206,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7202608056888</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36373,13 +36373,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>672.8447113218514</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>425.2462182282758</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36771,7 +36771,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>939.1244131184382</v>
       </c>
       <c r="N29" t="n">
-        <v>952.5051327011234</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>895.8503640095428</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>782.8881772547631</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,7 +37233,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37309,16 +37309,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>814.7404961971447</v>
+        <v>795.0547863356102</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887901</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>558.324231855693</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>450.9507366217078</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37719,7 +37719,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>825.9229012776192</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>782.8881772547631</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37862,10 +37862,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -37941,7 +37941,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120763</v>
@@ -38017,16 +38017,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>941.4711175181204</v>
       </c>
       <c r="N44" t="n">
-        <v>630.7064245296398</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38096,13 +38096,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
